--- a/diseaseNetwork/2018-09-18_link_file.xlsx
+++ b/diseaseNetwork/2018-09-18_link_file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="709">
   <si>
     <t xml:space="preserve">ICD_code</t>
   </si>
@@ -815,9 +815,6 @@
     <t xml:space="preserve">major_depressive_disorder_29317602</t>
   </si>
   <si>
-    <t xml:space="preserve">major_depressive_disorder_broad_20038947</t>
-  </si>
-  <si>
     <t xml:space="preserve">recurrent_major_depressive_disorder_29317602</t>
   </si>
   <si>
@@ -1553,7 +1550,7 @@
     <t xml:space="preserve">K50</t>
   </si>
   <si>
-    <t xml:space="preserve">crohns_disease_28067908</t>
+    <t xml:space="preserve">crohns_disease_23128233</t>
   </si>
   <si>
     <t xml:space="preserve">tumor_necrosis_factor_alpha_levels_27989323</t>
@@ -5312,21 +5309,21 @@
         <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B204" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
@@ -5334,13 +5331,13 @@
         <v>269</v>
       </c>
       <c r="B205" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
@@ -5348,7 +5345,7 @@
         <v>270</v>
       </c>
       <c r="B206" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -5359,10 +5356,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B207" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -5373,24 +5370,24 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B208" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B209" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -5401,10 +5398,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B210" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -5415,10 +5412,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B211" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -5429,10 +5426,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B212" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -5443,10 +5440,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B213" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -5457,7 +5454,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B214" t="s">
         <v>276</v>
@@ -5471,10 +5468,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B215" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -5488,7 +5485,7 @@
         <v>280</v>
       </c>
       <c r="B216" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -5499,10 +5496,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B217" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -5513,10 +5510,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>284</v>
+      </c>
+      <c r="B218" t="s">
         <v>281</v>
-      </c>
-      <c r="B218" t="s">
-        <v>283</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -5527,10 +5524,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B219" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -5541,10 +5538,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B220" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -5555,10 +5552,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>284</v>
+      </c>
+      <c r="B221" t="s">
         <v>285</v>
-      </c>
-      <c r="B221" t="s">
-        <v>283</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -5569,10 +5566,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -5583,10 +5580,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B223" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -5597,10 +5594,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B224" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -5611,10 +5608,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B225" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -5625,38 +5622,38 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B226" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B227" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>293</v>
+      </c>
+      <c r="B228" t="s">
         <v>291</v>
-      </c>
-      <c r="B228" t="s">
-        <v>292</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -5667,10 +5664,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B229" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
@@ -5681,52 +5678,52 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B230" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B231" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B232" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B233" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -5737,10 +5734,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B234" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -5751,10 +5748,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>303</v>
+      </c>
+      <c r="B235" t="s">
         <v>301</v>
-      </c>
-      <c r="B235" t="s">
-        <v>302</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -5765,10 +5762,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B236" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
@@ -5779,7 +5776,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B237" t="s">
         <v>302</v>
@@ -5793,66 +5790,66 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B238" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B239" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B240" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B241" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
+        <v>312</v>
+      </c>
+      <c r="B242" t="s">
         <v>310</v>
-      </c>
-      <c r="B242" t="s">
-        <v>311</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -5863,10 +5860,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B243" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -5877,24 +5874,24 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B244" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
+        <v>315</v>
+      </c>
+      <c r="B245" t="s">
         <v>314</v>
-      </c>
-      <c r="B245" t="s">
-        <v>315</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
@@ -5905,10 +5902,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
+        <v>317</v>
+      </c>
+      <c r="B246" t="s">
         <v>316</v>
-      </c>
-      <c r="B246" t="s">
-        <v>317</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
@@ -5919,24 +5916,24 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
+        <v>318</v>
+      </c>
+      <c r="B247" t="s">
         <v>316</v>
       </c>
-      <c r="B247" t="s">
-        <v>315</v>
-      </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B248" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
@@ -5947,35 +5944,35 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B249" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B250" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B251" t="s">
         <v>244</v>
@@ -5989,66 +5986,66 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B252" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D252" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B253" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D253" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B254" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D254" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B255" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D255" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B256" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -6059,10 +6056,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B257" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
@@ -6073,10 +6070,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B258" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -6087,10 +6084,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B259" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
@@ -6101,10 +6098,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B260" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
@@ -6115,24 +6112,24 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B261" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
+        <v>336</v>
+      </c>
+      <c r="B262" t="s">
         <v>333</v>
-      </c>
-      <c r="B262" t="s">
-        <v>336</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
@@ -6143,24 +6140,24 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B263" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B264" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
@@ -6171,7 +6168,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B265" t="s">
         <v>335</v>
@@ -6185,10 +6182,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B266" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -6199,52 +6196,52 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B267" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B268" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B269" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B270" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
@@ -6255,44 +6252,44 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B271" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B272" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B273" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -6300,7 +6297,7 @@
         <v>350</v>
       </c>
       <c r="B274" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
@@ -6311,38 +6308,38 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B275" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B276" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D276" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B277" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -6353,52 +6350,52 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B278" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C278" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B279" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C279" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B280" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
+        <v>363</v>
+      </c>
+      <c r="B281" t="s">
         <v>360</v>
-      </c>
-      <c r="B281" t="s">
-        <v>361</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -6409,44 +6406,44 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
+        <v>364</v>
+      </c>
+      <c r="B282" t="s">
         <v>360</v>
       </c>
-      <c r="B282" t="s">
-        <v>362</v>
-      </c>
       <c r="C282" t="s">
-        <v>363</v>
+        <v>6</v>
       </c>
       <c r="D282" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B283" t="s">
         <v>361</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="D283" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B284" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285">
@@ -6454,21 +6451,21 @@
         <v>366</v>
       </c>
       <c r="B285" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C285" t="s">
-        <v>363</v>
+        <v>6</v>
       </c>
       <c r="D285" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B286" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
@@ -6479,10 +6476,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
+        <v>370</v>
+      </c>
+      <c r="B287" t="s">
         <v>367</v>
-      </c>
-      <c r="B287" t="s">
-        <v>369</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
@@ -6493,10 +6490,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B288" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C288" t="s">
         <v>6</v>
@@ -6510,7 +6507,7 @@
         <v>371</v>
       </c>
       <c r="B289" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -6521,10 +6518,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B290" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
@@ -6535,7 +6532,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B291" t="s">
         <v>368</v>
@@ -6549,10 +6546,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B292" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
@@ -6566,7 +6563,7 @@
         <v>374</v>
       </c>
       <c r="B293" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C293" t="s">
         <v>6</v>
@@ -6577,10 +6574,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B294" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -6591,10 +6588,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B295" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C295" t="s">
         <v>6</v>
@@ -6605,10 +6602,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>379</v>
+      </c>
+      <c r="B296" t="s">
         <v>375</v>
-      </c>
-      <c r="B296" t="s">
-        <v>378</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
@@ -6619,10 +6616,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B297" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
@@ -6633,10 +6630,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B298" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -6647,10 +6644,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B299" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
@@ -6661,24 +6658,24 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
+        <v>379</v>
+      </c>
+      <c r="B300" t="s">
         <v>380</v>
       </c>
-      <c r="B300" t="s">
-        <v>378</v>
-      </c>
       <c r="C300" t="s">
         <v>6</v>
       </c>
       <c r="D300" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B301" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -6689,24 +6686,24 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B302" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
       </c>
       <c r="D302" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B303" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
@@ -6717,10 +6714,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B304" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C304" t="s">
         <v>6</v>
@@ -6734,7 +6731,7 @@
         <v>384</v>
       </c>
       <c r="B305" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C305" t="s">
         <v>6</v>
@@ -6745,80 +6742,80 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B306" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
       </c>
       <c r="D306" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B307" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
       </c>
       <c r="D307" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B308" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B309" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
       </c>
       <c r="D309" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B310" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C310" t="s">
         <v>6</v>
       </c>
       <c r="D310" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B311" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -6832,49 +6829,49 @@
         <v>391</v>
       </c>
       <c r="B312" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
       </c>
       <c r="D312" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B313" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
       </c>
       <c r="D313" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B314" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
       </c>
       <c r="D314" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B315" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C315" t="s">
         <v>6</v>
@@ -6885,10 +6882,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B316" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C316" t="s">
         <v>6</v>
@@ -6899,10 +6896,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B317" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
@@ -6913,10 +6910,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B318" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
@@ -6927,10 +6924,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B319" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C319" t="s">
         <v>6</v>
@@ -6941,10 +6938,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B320" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
@@ -6955,30 +6952,30 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B321" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
       </c>
       <c r="D321" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B322" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C322" t="s">
         <v>6</v>
       </c>
       <c r="D322" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323">
@@ -6986,7 +6983,7 @@
         <v>404</v>
       </c>
       <c r="B323" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C323" t="s">
         <v>6</v>
@@ -6997,16 +6994,16 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B324" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C324" t="s">
         <v>6</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325">
@@ -7014,7 +7011,7 @@
         <v>405</v>
       </c>
       <c r="B325" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C325" t="s">
         <v>6</v>
@@ -7025,7 +7022,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B326" t="s">
         <v>407</v>
@@ -7034,43 +7031,43 @@
         <v>6</v>
       </c>
       <c r="D326" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
+        <v>409</v>
+      </c>
+      <c r="B327" t="s">
         <v>406</v>
       </c>
-      <c r="B327" t="s">
-        <v>408</v>
-      </c>
       <c r="C327" t="s">
         <v>6</v>
       </c>
       <c r="D327" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B328" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
       </c>
       <c r="D328" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B329" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
@@ -7084,35 +7081,35 @@
         <v>411</v>
       </c>
       <c r="B330" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C330" t="s">
         <v>6</v>
       </c>
       <c r="D330" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B331" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C331" t="s">
         <v>6</v>
       </c>
       <c r="D331" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B332" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C332" t="s">
         <v>6</v>
@@ -7123,10 +7120,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B333" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
@@ -7137,24 +7134,24 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B334" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C334" t="s">
         <v>6</v>
       </c>
       <c r="D334" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B335" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C335" t="s">
         <v>6</v>
@@ -7165,63 +7162,63 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B336" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
       </c>
       <c r="D336" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B337" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C337" t="s">
         <v>6</v>
       </c>
       <c r="D337" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B338" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
       </c>
       <c r="D338" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B339" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C339" t="s">
         <v>6</v>
       </c>
       <c r="D339" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B340" t="s">
         <v>413</v>
@@ -7230,15 +7227,15 @@
         <v>6</v>
       </c>
       <c r="D340" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B341" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C341" t="s">
         <v>6</v>
@@ -7252,49 +7249,49 @@
         <v>425</v>
       </c>
       <c r="B342" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C342" t="s">
         <v>6</v>
       </c>
       <c r="D342" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B343" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C343" t="s">
         <v>6</v>
       </c>
       <c r="D343" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B344" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C344" t="s">
         <v>6</v>
       </c>
       <c r="D344" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B345" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
@@ -7308,7 +7305,7 @@
         <v>429</v>
       </c>
       <c r="B346" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C346" t="s">
         <v>6</v>
@@ -7319,10 +7316,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B347" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
@@ -7333,24 +7330,24 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B348" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="C348" t="s">
         <v>6</v>
       </c>
       <c r="D348" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B349" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
@@ -7361,10 +7358,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B350" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="C350" t="s">
         <v>6</v>
@@ -7375,10 +7372,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B351" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C351" t="s">
         <v>6</v>
@@ -7389,24 +7386,24 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B352" t="s">
-        <v>248</v>
+        <v>431</v>
       </c>
       <c r="C352" t="s">
         <v>6</v>
       </c>
       <c r="D352" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B353" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C353" t="s">
         <v>6</v>
@@ -7417,10 +7414,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B354" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C354" t="s">
         <v>6</v>
@@ -7431,30 +7428,30 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B355" t="s">
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="C355" t="s">
         <v>6</v>
       </c>
       <c r="D355" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B356" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
       </c>
       <c r="D356" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357">
@@ -7462,7 +7459,7 @@
         <v>440</v>
       </c>
       <c r="B357" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="C357" t="s">
         <v>6</v>
@@ -7473,10 +7470,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B358" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C358" t="s">
         <v>6</v>
@@ -7487,10 +7484,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
+        <v>443</v>
+      </c>
+      <c r="B359" t="s">
         <v>441</v>
-      </c>
-      <c r="B359" t="s">
-        <v>443</v>
       </c>
       <c r="C359" t="s">
         <v>6</v>
@@ -7501,10 +7498,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B360" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -7515,80 +7512,80 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B361" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C361" t="s">
         <v>6</v>
       </c>
       <c r="D361" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B362" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C362" t="s">
-        <v>6</v>
+        <v>447</v>
       </c>
       <c r="D362" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
+        <v>448</v>
+      </c>
+      <c r="B363" t="s">
         <v>444</v>
       </c>
-      <c r="B363" t="s">
-        <v>446</v>
-      </c>
       <c r="C363" t="s">
         <v>6</v>
       </c>
       <c r="D363" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
+        <v>449</v>
+      </c>
+      <c r="B364" t="s">
         <v>444</v>
       </c>
-      <c r="B364" t="s">
-        <v>447</v>
-      </c>
       <c r="C364" t="s">
-        <v>448</v>
+        <v>6</v>
       </c>
       <c r="D364" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B365" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C365" t="s">
         <v>6</v>
       </c>
       <c r="D365" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B366" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
@@ -7599,38 +7596,38 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B367" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
       </c>
       <c r="D367" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B368" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
       </c>
       <c r="D368" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B369" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
@@ -7641,10 +7638,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B370" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
@@ -7655,10 +7652,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B371" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
@@ -7669,10 +7666,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
+        <v>460</v>
+      </c>
+      <c r="B372" t="s">
         <v>458</v>
-      </c>
-      <c r="B372" t="s">
-        <v>459</v>
       </c>
       <c r="C372" t="s">
         <v>6</v>
@@ -7683,10 +7680,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B373" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C373" t="s">
         <v>6</v>
@@ -7697,10 +7694,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B374" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
@@ -7711,24 +7708,24 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
+        <v>464</v>
+      </c>
+      <c r="B375" t="s">
         <v>462</v>
       </c>
-      <c r="B375" t="s">
-        <v>463</v>
-      </c>
       <c r="C375" t="s">
         <v>6</v>
       </c>
       <c r="D375" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B376" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C376" t="s">
         <v>6</v>
@@ -7742,21 +7739,21 @@
         <v>465</v>
       </c>
       <c r="B377" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
       </c>
       <c r="D377" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B378" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -7767,24 +7764,24 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B379" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C379" t="s">
         <v>6</v>
       </c>
       <c r="D379" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B380" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
@@ -7795,24 +7792,24 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B381" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C381" t="s">
         <v>6</v>
       </c>
       <c r="D381" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B382" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C382" t="s">
         <v>6</v>
@@ -7823,10 +7820,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
+        <v>473</v>
+      </c>
+      <c r="B383" t="s">
         <v>466</v>
-      </c>
-      <c r="B383" t="s">
-        <v>472</v>
       </c>
       <c r="C383" t="s">
         <v>6</v>
@@ -7846,15 +7843,15 @@
         <v>6</v>
       </c>
       <c r="D384" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B385" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C385" t="s">
         <v>6</v>
@@ -7868,7 +7865,7 @@
         <v>474</v>
       </c>
       <c r="B386" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C386" t="s">
         <v>6</v>
@@ -7879,24 +7876,24 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B387" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C387" t="s">
         <v>6</v>
       </c>
       <c r="D387" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B388" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C388" t="s">
         <v>6</v>
@@ -7916,12 +7913,12 @@
         <v>6</v>
       </c>
       <c r="D389" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B390" t="s">
         <v>478</v>
@@ -7935,94 +7932,94 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
+        <v>479</v>
+      </c>
+      <c r="B391" t="s">
         <v>477</v>
       </c>
-      <c r="B391" t="s">
-        <v>468</v>
-      </c>
       <c r="C391" t="s">
         <v>6</v>
       </c>
       <c r="D391" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B392" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C392" t="s">
         <v>6</v>
       </c>
       <c r="D392" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B393" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C393" t="s">
         <v>6</v>
       </c>
       <c r="D393" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B394" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
       </c>
       <c r="D394" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B395" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C395" t="s">
         <v>6</v>
       </c>
       <c r="D395" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B396" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C396" t="s">
         <v>6</v>
       </c>
       <c r="D396" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B397" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C397" t="s">
         <v>6</v>
@@ -8033,10 +8030,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B398" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C398" t="s">
         <v>6</v>
@@ -8047,10 +8044,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B399" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C399" t="s">
         <v>6</v>
@@ -8061,24 +8058,24 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B400" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C400" t="s">
         <v>6</v>
       </c>
       <c r="D400" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B401" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C401" t="s">
         <v>6</v>
@@ -8089,10 +8086,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B402" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C402" t="s">
         <v>6</v>
@@ -8103,24 +8100,24 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B403" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C403" t="s">
         <v>6</v>
       </c>
       <c r="D403" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B404" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C404" t="s">
         <v>6</v>
@@ -8131,38 +8128,38 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
+        <v>496</v>
+      </c>
+      <c r="B405" t="s">
         <v>497</v>
       </c>
-      <c r="B405" t="s">
-        <v>491</v>
-      </c>
       <c r="C405" t="s">
         <v>6</v>
       </c>
       <c r="D405" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B406" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C406" t="s">
         <v>6</v>
       </c>
       <c r="D406" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B407" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C407" t="s">
         <v>6</v>
@@ -8176,21 +8173,21 @@
         <v>499</v>
       </c>
       <c r="B408" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C408" t="s">
         <v>6</v>
       </c>
       <c r="D408" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B409" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C409" t="s">
         <v>6</v>
@@ -8201,24 +8198,24 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B410" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C410" t="s">
         <v>6</v>
       </c>
       <c r="D410" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B411" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C411" t="s">
         <v>6</v>
@@ -8229,80 +8226,80 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
+        <v>504</v>
+      </c>
+      <c r="B412" t="s">
         <v>502</v>
       </c>
-      <c r="B412" t="s">
-        <v>504</v>
-      </c>
       <c r="C412" t="s">
         <v>6</v>
       </c>
       <c r="D412" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B413" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C413" t="s">
         <v>6</v>
       </c>
       <c r="D413" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B414" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C414" t="s">
         <v>6</v>
       </c>
       <c r="D414" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B415" t="s">
-        <v>504</v>
+        <v>39</v>
       </c>
       <c r="C415" t="s">
         <v>6</v>
       </c>
       <c r="D415" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
+        <v>507</v>
+      </c>
+      <c r="B416" t="s">
         <v>505</v>
       </c>
-      <c r="B416" t="s">
-        <v>507</v>
-      </c>
       <c r="C416" t="s">
         <v>6</v>
       </c>
       <c r="D416" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B417" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C417" t="s">
         <v>6</v>
@@ -8316,7 +8313,7 @@
         <v>508</v>
       </c>
       <c r="B418" t="s">
-        <v>506</v>
+        <v>39</v>
       </c>
       <c r="C418" t="s">
         <v>6</v>
@@ -8330,7 +8327,7 @@
         <v>508</v>
       </c>
       <c r="B419" t="s">
-        <v>40</v>
+        <v>505</v>
       </c>
       <c r="C419" t="s">
         <v>6</v>
@@ -8341,10 +8338,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B420" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C420" t="s">
         <v>6</v>
@@ -8364,35 +8361,35 @@
         <v>6</v>
       </c>
       <c r="D421" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B422" t="s">
-        <v>40</v>
+        <v>506</v>
       </c>
       <c r="C422" t="s">
         <v>6</v>
       </c>
       <c r="D422" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B423" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C423" t="s">
         <v>6</v>
       </c>
       <c r="D423" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424">
@@ -8400,21 +8397,21 @@
         <v>511</v>
       </c>
       <c r="B424" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C424" t="s">
         <v>6</v>
       </c>
       <c r="D424" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
+        <v>514</v>
+      </c>
+      <c r="B425" t="s">
         <v>512</v>
-      </c>
-      <c r="B425" t="s">
-        <v>513</v>
       </c>
       <c r="C425" t="s">
         <v>6</v>
@@ -8425,10 +8422,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B426" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C426" t="s">
         <v>6</v>
@@ -8439,24 +8436,24 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B427" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C427" t="s">
         <v>6</v>
       </c>
       <c r="D427" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B428" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C428" t="s">
         <v>6</v>
@@ -8467,10 +8464,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B429" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C429" t="s">
         <v>6</v>
@@ -8484,7 +8481,7 @@
         <v>518</v>
       </c>
       <c r="B430" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C430" t="s">
         <v>6</v>
@@ -8495,52 +8492,52 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B431" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C431" t="s">
         <v>6</v>
       </c>
       <c r="D431" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B432" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C432" t="s">
         <v>6</v>
       </c>
       <c r="D432" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B433" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C433" t="s">
         <v>6</v>
       </c>
       <c r="D433" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
+        <v>523</v>
+      </c>
+      <c r="B434" t="s">
         <v>522</v>
-      </c>
-      <c r="B434" t="s">
-        <v>523</v>
       </c>
       <c r="C434" t="s">
         <v>6</v>
@@ -8551,52 +8548,52 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B435" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C435" t="s">
         <v>6</v>
       </c>
       <c r="D435" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
+        <v>526</v>
+      </c>
+      <c r="B436" t="s">
         <v>524</v>
       </c>
-      <c r="B436" t="s">
-        <v>523</v>
-      </c>
       <c r="C436" t="s">
         <v>6</v>
       </c>
       <c r="D436" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B437" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C437" t="s">
         <v>6</v>
       </c>
       <c r="D437" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B438" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C438" t="s">
         <v>6</v>
@@ -8607,10 +8604,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B439" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -8621,38 +8618,38 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B440" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C440" t="s">
         <v>6</v>
       </c>
       <c r="D440" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B441" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C441" t="s">
         <v>6</v>
       </c>
       <c r="D441" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
+        <v>535</v>
+      </c>
+      <c r="B442" t="s">
         <v>533</v>
-      </c>
-      <c r="B442" t="s">
-        <v>534</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
@@ -8663,16 +8660,16 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B443" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C443" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D443" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="444">
@@ -8680,21 +8677,21 @@
         <v>536</v>
       </c>
       <c r="B444" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C444" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D444" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
+        <v>539</v>
+      </c>
+      <c r="B445" t="s">
         <v>537</v>
-      </c>
-      <c r="B445" t="s">
-        <v>538</v>
       </c>
       <c r="C445" t="s">
         <v>13</v>
@@ -8705,10 +8702,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B446" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C446" t="s">
         <v>13</v>
@@ -8722,13 +8719,13 @@
         <v>540</v>
       </c>
       <c r="B447" t="s">
-        <v>538</v>
+        <v>477</v>
       </c>
       <c r="C447" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D447" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448">
@@ -8736,49 +8733,49 @@
         <v>540</v>
       </c>
       <c r="B448" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C448" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D448" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
+        <v>542</v>
+      </c>
+      <c r="B449" t="s">
         <v>541</v>
       </c>
-      <c r="B449" t="s">
-        <v>478</v>
-      </c>
       <c r="C449" t="s">
         <v>6</v>
       </c>
       <c r="D449" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B450" t="s">
-        <v>542</v>
+        <v>477</v>
       </c>
       <c r="C450" t="s">
         <v>6</v>
       </c>
       <c r="D450" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B451" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C451" t="s">
         <v>6</v>
@@ -8792,21 +8789,21 @@
         <v>544</v>
       </c>
       <c r="B452" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="C452" t="s">
         <v>6</v>
       </c>
       <c r="D452" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B453" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C453" t="s">
         <v>6</v>
@@ -8817,10 +8814,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
+        <v>548</v>
+      </c>
+      <c r="B454" t="s">
         <v>545</v>
-      </c>
-      <c r="B454" t="s">
-        <v>547</v>
       </c>
       <c r="C454" t="s">
         <v>6</v>
@@ -8831,10 +8828,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B455" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C455" t="s">
         <v>6</v>
@@ -8845,10 +8842,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B456" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C456" t="s">
         <v>6</v>
@@ -8862,7 +8859,7 @@
         <v>549</v>
       </c>
       <c r="B457" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C457" t="s">
         <v>6</v>
@@ -8873,10 +8870,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B458" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C458" t="s">
         <v>6</v>
@@ -8887,16 +8884,16 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B459" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C459" t="s">
         <v>6</v>
       </c>
       <c r="D459" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460">
@@ -8904,7 +8901,7 @@
         <v>551</v>
       </c>
       <c r="B460" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C460" t="s">
         <v>6</v>
@@ -8915,10 +8912,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
+        <v>554</v>
+      </c>
+      <c r="B461" t="s">
         <v>552</v>
-      </c>
-      <c r="B461" t="s">
-        <v>553</v>
       </c>
       <c r="C461" t="s">
         <v>6</v>
@@ -8929,24 +8926,24 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
+        <v>555</v>
+      </c>
+      <c r="B462" t="s">
         <v>552</v>
       </c>
-      <c r="B462" t="s">
-        <v>554</v>
-      </c>
       <c r="C462" t="s">
         <v>6</v>
       </c>
       <c r="D462" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B463" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C463" t="s">
         <v>6</v>
@@ -8957,7 +8954,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B464" t="s">
         <v>553</v>
@@ -8966,15 +8963,15 @@
         <v>6</v>
       </c>
       <c r="D464" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B465" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C465" t="s">
         <v>6</v>
@@ -8985,10 +8982,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B466" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C466" t="s">
         <v>6</v>
@@ -8999,21 +8996,21 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B467" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C467" t="s">
         <v>6</v>
       </c>
       <c r="D467" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B468" t="s">
         <v>562</v>
@@ -9027,10 +9024,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
+        <v>564</v>
+      </c>
+      <c r="B469" t="s">
         <v>561</v>
-      </c>
-      <c r="B469" t="s">
-        <v>563</v>
       </c>
       <c r="C469" t="s">
         <v>6</v>
@@ -9041,10 +9038,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C470" t="s">
         <v>6</v>
@@ -9055,10 +9052,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B471" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C471" t="s">
         <v>6</v>
@@ -9069,10 +9066,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
+        <v>567</v>
+      </c>
+      <c r="B472" t="s">
         <v>566</v>
-      </c>
-      <c r="B472" t="s">
-        <v>567</v>
       </c>
       <c r="C472" t="s">
         <v>6</v>
@@ -9083,10 +9080,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
+        <v>569</v>
+      </c>
+      <c r="B473" t="s">
         <v>568</v>
-      </c>
-      <c r="B473" t="s">
-        <v>569</v>
       </c>
       <c r="C473" t="s">
         <v>6</v>
@@ -9097,10 +9094,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B474" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C474" t="s">
         <v>6</v>
@@ -9114,7 +9111,7 @@
         <v>570</v>
       </c>
       <c r="B475" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C475" t="s">
         <v>6</v>
@@ -9125,58 +9122,58 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B476" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C476" t="s">
         <v>6</v>
       </c>
       <c r="D476" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B477" t="s">
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="C477" t="s">
         <v>6</v>
       </c>
       <c r="D477" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B478" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C478" t="s">
         <v>6</v>
       </c>
       <c r="D478" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
+        <v>575</v>
+      </c>
+      <c r="B479" t="s">
         <v>574</v>
       </c>
-      <c r="B479" t="s">
-        <v>514</v>
-      </c>
       <c r="C479" t="s">
         <v>6</v>
       </c>
       <c r="D479" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="480">
@@ -9184,63 +9181,63 @@
         <v>576</v>
       </c>
       <c r="B480" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="C480" t="s">
         <v>6</v>
       </c>
       <c r="D480" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B481" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C481" t="s">
         <v>6</v>
       </c>
       <c r="D481" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B482" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="C482" t="s">
         <v>6</v>
       </c>
       <c r="D482" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B483" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C483" t="s">
         <v>6</v>
       </c>
       <c r="D483" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B484" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C484" t="s">
         <v>6</v>
@@ -9254,7 +9251,7 @@
         <v>581</v>
       </c>
       <c r="B485" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C485" t="s">
         <v>6</v>
@@ -9265,38 +9262,38 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B486" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C486" t="s">
         <v>6</v>
       </c>
       <c r="D486" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B487" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="C487" t="s">
         <v>6</v>
       </c>
       <c r="D487" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B488" t="s">
-        <v>585</v>
+        <v>192</v>
       </c>
       <c r="C488" t="s">
         <v>6</v>
@@ -9307,10 +9304,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B489" t="s">
-        <v>572</v>
+        <v>228</v>
       </c>
       <c r="C489" t="s">
         <v>6</v>
@@ -9324,7 +9321,7 @@
         <v>586</v>
       </c>
       <c r="B490" t="s">
-        <v>192</v>
+        <v>587</v>
       </c>
       <c r="C490" t="s">
         <v>6</v>
@@ -9338,21 +9335,21 @@
         <v>586</v>
       </c>
       <c r="B491" t="s">
-        <v>228</v>
+        <v>583</v>
       </c>
       <c r="C491" t="s">
         <v>6</v>
       </c>
       <c r="D491" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B492" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C492" t="s">
         <v>6</v>
@@ -9363,24 +9360,24 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B493" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C493" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D493" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
+        <v>591</v>
+      </c>
+      <c r="B494" t="s">
         <v>589</v>
-      </c>
-      <c r="B494" t="s">
-        <v>590</v>
       </c>
       <c r="C494" t="s">
         <v>6</v>
@@ -9391,10 +9388,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B495" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C495" t="s">
         <v>13</v>
@@ -9405,10 +9402,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B496" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C496" t="s">
         <v>6</v>
@@ -9419,66 +9416,66 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B497" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C497" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D497" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B498" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C498" t="s">
         <v>6</v>
       </c>
       <c r="D498" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B499" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="C499" t="s">
         <v>6</v>
       </c>
       <c r="D499" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B500" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C500" t="s">
         <v>6</v>
       </c>
       <c r="D500" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B501" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C501" t="s">
         <v>6</v>
@@ -9489,38 +9486,38 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B502" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="C502" t="s">
         <v>6</v>
       </c>
       <c r="D502" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B503" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="C503" t="s">
         <v>6</v>
       </c>
       <c r="D503" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B504" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="C504" t="s">
         <v>6</v>
@@ -9531,10 +9528,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B505" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C505" t="s">
         <v>6</v>
@@ -9545,10 +9542,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B506" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C506" t="s">
         <v>6</v>
@@ -9559,10 +9556,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
+        <v>606</v>
+      </c>
+      <c r="B507" t="s">
         <v>604</v>
-      </c>
-      <c r="B507" t="s">
-        <v>605</v>
       </c>
       <c r="C507" t="s">
         <v>6</v>
@@ -9573,10 +9570,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B508" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C508" t="s">
         <v>6</v>
@@ -9587,38 +9584,38 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B509" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C509" t="s">
         <v>6</v>
       </c>
       <c r="D509" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B510" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C510" t="s">
         <v>6</v>
       </c>
       <c r="D510" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B511" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C511" t="s">
         <v>6</v>
@@ -9629,10 +9626,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B512" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C512" t="s">
         <v>6</v>
@@ -9643,24 +9640,24 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B513" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C513" t="s">
         <v>6</v>
       </c>
       <c r="D513" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
+        <v>615</v>
+      </c>
+      <c r="B514" t="s">
         <v>611</v>
-      </c>
-      <c r="B514" t="s">
-        <v>614</v>
       </c>
       <c r="C514" t="s">
         <v>6</v>
@@ -9671,24 +9668,24 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B515" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C515" t="s">
         <v>6</v>
       </c>
       <c r="D515" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B516" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C516" t="s">
         <v>6</v>
@@ -9699,38 +9696,38 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B517" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C517" t="s">
         <v>6</v>
       </c>
       <c r="D517" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
+        <v>615</v>
+      </c>
+      <c r="B518" t="s">
         <v>616</v>
       </c>
-      <c r="B518" t="s">
-        <v>614</v>
-      </c>
       <c r="C518" t="s">
         <v>6</v>
       </c>
       <c r="D518" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B519" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C519" t="s">
         <v>6</v>
@@ -9741,10 +9738,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
+        <v>618</v>
+      </c>
+      <c r="B520" t="s">
         <v>616</v>
-      </c>
-      <c r="B520" t="s">
-        <v>617</v>
       </c>
       <c r="C520" t="s">
         <v>6</v>
@@ -9755,10 +9752,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B521" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C521" t="s">
         <v>6</v>
@@ -9769,94 +9766,94 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B522" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C522" t="s">
         <v>6</v>
       </c>
       <c r="D522" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B523" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C523" t="s">
         <v>6</v>
       </c>
       <c r="D523" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B524" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C524" t="s">
         <v>6</v>
       </c>
       <c r="D524" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B525" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C525" t="s">
         <v>6</v>
       </c>
       <c r="D525" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B526" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C526" t="s">
         <v>6</v>
       </c>
       <c r="D526" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B527" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C527" t="s">
         <v>6</v>
       </c>
       <c r="D527" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B528" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C528" t="s">
         <v>6</v>
@@ -9867,10 +9864,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B529" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C529" t="s">
         <v>6</v>
@@ -9881,10 +9878,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B530" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C530" t="s">
         <v>6</v>
@@ -9895,10 +9892,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B531" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C531" t="s">
         <v>6</v>
@@ -9909,10 +9906,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B532" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C532" t="s">
         <v>6</v>
@@ -9923,10 +9920,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B533" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C533" t="s">
         <v>6</v>
@@ -9937,10 +9934,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B534" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C534" t="s">
         <v>6</v>
@@ -9951,10 +9948,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B535" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C535" t="s">
         <v>6</v>
@@ -9965,38 +9962,38 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B536" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C536" t="s">
         <v>6</v>
       </c>
       <c r="D536" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B537" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C537" t="s">
         <v>6</v>
       </c>
       <c r="D537" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
+        <v>645</v>
+      </c>
+      <c r="B538" t="s">
         <v>643</v>
-      </c>
-      <c r="B538" t="s">
-        <v>644</v>
       </c>
       <c r="C538" t="s">
         <v>6</v>
@@ -10007,24 +10004,24 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B539" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C539" t="s">
         <v>6</v>
       </c>
       <c r="D539" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B540" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="C540" t="s">
         <v>6</v>
@@ -10035,24 +10032,24 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B541" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C541" t="s">
         <v>6</v>
       </c>
       <c r="D541" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B542" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C542" t="s">
         <v>6</v>
@@ -10063,10 +10060,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
+        <v>653</v>
+      </c>
+      <c r="B543" t="s">
         <v>651</v>
-      </c>
-      <c r="B543" t="s">
-        <v>652</v>
       </c>
       <c r="C543" t="s">
         <v>6</v>
@@ -10077,94 +10074,94 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B544" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C544" t="s">
         <v>6</v>
       </c>
       <c r="D544" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B545" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C545" t="s">
         <v>6</v>
       </c>
       <c r="D545" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B546" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C546" t="s">
         <v>6</v>
       </c>
       <c r="D546" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B547" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C547" t="s">
         <v>6</v>
       </c>
       <c r="D547" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B548" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C548" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D548" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B549" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C549" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D549" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B550" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C550" t="s">
         <v>13</v>
@@ -10175,10 +10172,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B551" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C551" t="s">
         <v>13</v>
@@ -10189,10 +10186,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
+        <v>667</v>
+      </c>
+      <c r="B552" t="s">
         <v>665</v>
-      </c>
-      <c r="B552" t="s">
-        <v>666</v>
       </c>
       <c r="C552" t="s">
         <v>13</v>
@@ -10203,10 +10200,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B553" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C553" t="s">
         <v>13</v>
@@ -10217,66 +10214,66 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B554" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C554" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D554" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B555" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C555" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D555" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B556" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C556" t="s">
         <v>6</v>
       </c>
       <c r="D556" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B557" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C557" t="s">
         <v>6</v>
       </c>
       <c r="D557" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B558" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C558" t="s">
         <v>6</v>
@@ -10287,24 +10284,24 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B559" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C559" t="s">
         <v>6</v>
       </c>
       <c r="D559" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
+        <v>680</v>
+      </c>
+      <c r="B560" t="s">
         <v>677</v>
-      </c>
-      <c r="B560" t="s">
-        <v>678</v>
       </c>
       <c r="C560" t="s">
         <v>6</v>
@@ -10315,10 +10312,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B561" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C561" t="s">
         <v>6</v>
@@ -10329,10 +10326,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B562" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C562" t="s">
         <v>6</v>
@@ -10343,10 +10340,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B563" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C563" t="s">
         <v>6</v>
@@ -10357,24 +10354,24 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B564" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C564" t="s">
         <v>6</v>
       </c>
       <c r="D564" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B565" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C565" t="s">
         <v>6</v>
@@ -10388,7 +10385,7 @@
         <v>686</v>
       </c>
       <c r="B566" t="s">
-        <v>685</v>
+        <v>248</v>
       </c>
       <c r="C566" t="s">
         <v>6</v>
@@ -10399,7 +10396,7 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B567" t="s">
         <v>688</v>
@@ -10413,10 +10410,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B568" t="s">
-        <v>248</v>
+        <v>471</v>
       </c>
       <c r="C568" t="s">
         <v>6</v>
@@ -10427,10 +10424,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B569" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C569" t="s">
         <v>6</v>
@@ -10441,10 +10438,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B570" t="s">
-        <v>472</v>
+        <v>693</v>
       </c>
       <c r="C570" t="s">
         <v>6</v>
@@ -10455,10 +10452,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B571" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C571" t="s">
         <v>6</v>
@@ -10469,10 +10466,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
+        <v>696</v>
+      </c>
+      <c r="B572" t="s">
         <v>693</v>
-      </c>
-      <c r="B572" t="s">
-        <v>694</v>
       </c>
       <c r="C572" t="s">
         <v>6</v>
@@ -10483,16 +10480,16 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B573" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C573" t="s">
         <v>6</v>
       </c>
       <c r="D573" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="574">
@@ -10500,21 +10497,21 @@
         <v>697</v>
       </c>
       <c r="B574" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C574" t="s">
         <v>6</v>
       </c>
       <c r="D574" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
+        <v>700</v>
+      </c>
+      <c r="B575" t="s">
         <v>698</v>
-      </c>
-      <c r="B575" t="s">
-        <v>699</v>
       </c>
       <c r="C575" t="s">
         <v>6</v>
@@ -10525,10 +10522,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
+        <v>701</v>
+      </c>
+      <c r="B576" t="s">
         <v>698</v>
-      </c>
-      <c r="B576" t="s">
-        <v>700</v>
       </c>
       <c r="C576" t="s">
         <v>6</v>
@@ -10539,7 +10536,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B577" t="s">
         <v>699</v>
@@ -10553,7 +10550,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B578" t="s">
         <v>699</v>
@@ -10567,16 +10564,16 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B579" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C579" t="s">
         <v>6</v>
       </c>
       <c r="D579" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580">
@@ -10584,21 +10581,21 @@
         <v>704</v>
       </c>
       <c r="B580" t="s">
-        <v>700</v>
+        <v>99</v>
       </c>
       <c r="C580" t="s">
         <v>6</v>
       </c>
       <c r="D580" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B581" t="s">
-        <v>706</v>
+        <v>295</v>
       </c>
       <c r="C581" t="s">
         <v>6</v>
@@ -10609,43 +10606,15 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B582" t="s">
-        <v>99</v>
+        <v>708</v>
       </c>
       <c r="C582" t="s">
         <v>6</v>
       </c>
       <c r="D582" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="s">
-        <v>707</v>
-      </c>
-      <c r="B583" t="s">
-        <v>296</v>
-      </c>
-      <c r="C583" t="s">
-        <v>6</v>
-      </c>
-      <c r="D583" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="s">
-        <v>708</v>
-      </c>
-      <c r="B584" t="s">
-        <v>709</v>
-      </c>
-      <c r="C584" t="s">
-        <v>6</v>
-      </c>
-      <c r="D584" t="s">
         <v>7</v>
       </c>
     </row>
